--- a/test-run-1/results/EGC_mock_community_LerayXT.xlsx
+++ b/test-run-1/results/EGC_mock_community_LerayXT.xlsx
@@ -1,31 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcf05\Documents\PhD\DNA_Metabarcoding\GreenCrab\EGC-Salish-Sea\test-lane-1\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcf05\Documents\PhD\DNA_Metabarcoding\GreenCrab\EGC-Salish-Sea\test-run-1\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B02C325-DF63-4E96-B985-3B67243D6AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680210B1-C139-41CC-81C0-E9089E2C0A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="working_list" sheetId="4" r:id="rId1"/>
-    <sheet name="summaries" sheetId="2" r:id="rId2"/>
-    <sheet name="R_output" sheetId="1" r:id="rId3"/>
+    <sheet name="final_list" sheetId="5" r:id="rId1"/>
+    <sheet name="dec_working_list" sheetId="4" r:id="rId2"/>
+    <sheet name="run1_summaries" sheetId="2" r:id="rId3"/>
+    <sheet name="run1_R_output" sheetId="1" r:id="rId4"/>
+    <sheet name="salish_bycatch" sheetId="7" r:id="rId5"/>
+    <sheet name="willapa_bycatch" sheetId="9" r:id="rId6"/>
+    <sheet name="willapa_literature" sheetId="10" r:id="rId7"/>
+    <sheet name="salish_literature" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">R_output!$J$1:$P$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">run1_R_output!$J$1:$P$82</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="285">
   <si>
     <t>Group</t>
   </si>
@@ -439,12 +455,489 @@
   <si>
     <t>Cordone et al. identified with BF3/BR2 primer</t>
   </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>predator</t>
+  </si>
+  <si>
+    <t>sequencing data; expected prey</t>
+  </si>
+  <si>
+    <t>Reasons for inclusion</t>
+  </si>
+  <si>
+    <t>sequencing data</t>
+  </si>
+  <si>
+    <t>species present in semi-processed Run 1 sequencing data</t>
+  </si>
+  <si>
+    <t>prey of interest</t>
+  </si>
+  <si>
+    <t>prey of is particular conservation / economic interest</t>
+  </si>
+  <si>
+    <t>expected prey</t>
+  </si>
+  <si>
+    <t>expected prey item based on Dungeness crab diet work and expert opinion</t>
+  </si>
+  <si>
+    <t>bycatch</t>
+  </si>
+  <si>
+    <t>species is present in Crab Team trap bycatch</t>
+  </si>
+  <si>
+    <t>local fauna</t>
+  </si>
+  <si>
+    <t>infauna / epifauna species of high abundance at trapping sites, according to literature</t>
+  </si>
+  <si>
+    <t>(notes)</t>
+  </si>
+  <si>
+    <t>Run 1 forward sequences from BF3 / Leray primers show species presence</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>fish (sanddab)</t>
+  </si>
+  <si>
+    <t>Chthamalus dalli</t>
+  </si>
+  <si>
+    <t>Run 1 BF3 sequences  show genus presence; Run 1 BF3 forward sequences show species presence</t>
+  </si>
+  <si>
+    <t>Crangon (spp, franciscorum?)</t>
+  </si>
+  <si>
+    <t>Run 1 LXT forward sequences show genus presence</t>
+  </si>
+  <si>
+    <t>Zostera marina</t>
+  </si>
+  <si>
+    <t>seagrass</t>
+  </si>
+  <si>
+    <t>prey of interest; expected prey</t>
+  </si>
+  <si>
+    <t>Mytilis trossulus</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Per Trap</t>
+  </si>
+  <si>
+    <t>Crab</t>
+  </si>
+  <si>
+    <t>Batillaria attramentaria</t>
+  </si>
+  <si>
+    <t>Snail</t>
+  </si>
+  <si>
+    <t>Leptocottus armatus</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Pagurus hirsutiusculus</t>
+  </si>
+  <si>
+    <t>Hermit Crab</t>
+  </si>
+  <si>
+    <t>Hemigrapsus nudus</t>
+  </si>
+  <si>
+    <t>Broken back shrimps</t>
+  </si>
+  <si>
+    <t>Shrimp</t>
+  </si>
+  <si>
+    <t>Pagurus granosimanus</t>
+  </si>
+  <si>
+    <t>Porichthys notatus</t>
+  </si>
+  <si>
+    <t>Eel like fishes (prickelbacks and gunnels)</t>
+  </si>
+  <si>
+    <t>Gasterosteus aculeatus</t>
+  </si>
+  <si>
+    <t>Littorina sitkana</t>
+  </si>
+  <si>
+    <t>Nassarius sp.</t>
+  </si>
+  <si>
+    <t>Hermit Crabs (unspecified Species)</t>
+  </si>
+  <si>
+    <t>Cymatogaster aggregata</t>
+  </si>
+  <si>
+    <t>Telmessus cheiragonus</t>
+  </si>
+  <si>
+    <t>Shrimp - unspecified</t>
+  </si>
+  <si>
+    <t>Oligocottus maculosus</t>
+  </si>
+  <si>
+    <t>Flatfish - unspecified</t>
+  </si>
+  <si>
+    <t>Ctenophores and Cnidairans</t>
+  </si>
+  <si>
+    <t>Haminoea sp. (bubble shell)</t>
+  </si>
+  <si>
+    <t>Gastropod</t>
+  </si>
+  <si>
+    <t>Crangon sp.</t>
+  </si>
+  <si>
+    <t>Broken Back shrimps</t>
+  </si>
+  <si>
+    <t>Platichthys stellatus</t>
+  </si>
+  <si>
+    <t>Dungeness Channel</t>
+  </si>
+  <si>
+    <t>Drayton Pillars</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Leptococcus armatus</t>
+  </si>
+  <si>
+    <t>fish (sculpin)</t>
+  </si>
+  <si>
+    <t>bycatch (SS)</t>
+  </si>
+  <si>
+    <t>snail</t>
+  </si>
+  <si>
+    <t>Upogebia pugettensis</t>
+  </si>
+  <si>
+    <t>Neotrypaea califoriensis</t>
+  </si>
+  <si>
+    <t>Drayton Pillars 2021</t>
+  </si>
+  <si>
+    <t>2. species at high frequency in 1-2 groups</t>
+  </si>
+  <si>
+    <t>1. species present in all three groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRITERIA to INCLUDE: </t>
+  </si>
+  <si>
+    <t>Drayton Pillars 2020</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Mean per Trap</t>
+  </si>
+  <si>
+    <t>included?</t>
+  </si>
+  <si>
+    <t>fish (shiner perch)</t>
+  </si>
+  <si>
+    <t>fish (stickleback)</t>
+  </si>
+  <si>
+    <t>fish (starry flounder)</t>
+  </si>
+  <si>
+    <t>sequencing data; bycatch (SS/WB)</t>
+  </si>
+  <si>
+    <t>sequencing data; prey of interest; bycatch (SS/WB)</t>
+  </si>
+  <si>
+    <t>expected prey; bycatch (WB)</t>
+  </si>
+  <si>
+    <t>Crab Team notes say this fish was predated by CAMA in same trap</t>
+  </si>
+  <si>
+    <t>Nahcotta</t>
+  </si>
+  <si>
+    <t>Cottus asper</t>
+  </si>
+  <si>
+    <t>Stackpole</t>
+  </si>
+  <si>
+    <t>Bay Goby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tritia (Ilyanasa) obsoleta </t>
+  </si>
+  <si>
+    <t>Longbeach</t>
+  </si>
+  <si>
+    <t>Oysterville</t>
+  </si>
+  <si>
+    <t>HermitCrab</t>
+  </si>
+  <si>
+    <t>PerTrap</t>
+  </si>
+  <si>
+    <t>Tritia (Ilyanasa) obsoleta</t>
+  </si>
+  <si>
+    <t>bycatch (WB)</t>
+  </si>
+  <si>
+    <t>Nassarius (fossatus, perpinguis)</t>
+  </si>
+  <si>
+    <t>bycatch (SS/WB)</t>
+  </si>
+  <si>
+    <t>Mytilis spp: californianus, galloprovincialis, edulis</t>
+  </si>
+  <si>
+    <t>check infauna/epifauna surveys</t>
+  </si>
+  <si>
+    <t>Eel-like fishes (prickleback, gunnel)</t>
+  </si>
+  <si>
+    <t>2. at high frequency at one or more sites</t>
+  </si>
+  <si>
+    <t>1. at both clam bed / both control sites</t>
+  </si>
+  <si>
+    <t>Critera for Inclusion:</t>
+  </si>
+  <si>
+    <t>(controls)</t>
+  </si>
+  <si>
+    <t>(clam beds)</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>Broken-back shrimps</t>
+  </si>
+  <si>
+    <t>Lepidogobius lepidus</t>
+  </si>
+  <si>
+    <t>fish (goby)</t>
+  </si>
+  <si>
+    <t>abundance</t>
+  </si>
+  <si>
+    <t>abundance measure</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Molluscs</t>
+  </si>
+  <si>
+    <t>Macoma sp</t>
+  </si>
+  <si>
+    <t>Mytilid sp</t>
+  </si>
+  <si>
+    <t>Macoma nasuta</t>
+  </si>
+  <si>
+    <t>Myid sp</t>
+  </si>
+  <si>
+    <t>no/m2</t>
+  </si>
+  <si>
+    <t>Crustaceans</t>
+  </si>
+  <si>
+    <t>Harpacticoida</t>
+  </si>
+  <si>
+    <t>Corophiid</t>
+  </si>
+  <si>
+    <t>Tanaidacean</t>
+  </si>
+  <si>
+    <t>Gammaridae</t>
+  </si>
+  <si>
+    <t>Caprellid</t>
+  </si>
+  <si>
+    <t>Ostracod</t>
+  </si>
+  <si>
+    <t>Cumacean</t>
+  </si>
+  <si>
+    <t>Polychaetes</t>
+  </si>
+  <si>
+    <t>Mediomastus californiensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tharyx parvus </t>
+  </si>
+  <si>
+    <t>Polydora cornuta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudopolydora kempi </t>
+  </si>
+  <si>
+    <t>Streblospio benedicti</t>
+  </si>
+  <si>
+    <t>Booth, Patten, New (2019)</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Cedar River, Stony Point, Bay Center, Leadbetter</t>
+  </si>
+  <si>
+    <t>Macoma spp: balthica, golikovi, nasuta, inquinata, lipara</t>
+  </si>
+  <si>
+    <t>expected prey; WB literature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cryptomya californica </t>
+  </si>
+  <si>
+    <t>WB literature</t>
+  </si>
+  <si>
+    <t>Cryptomya californica</t>
+  </si>
+  <si>
+    <t>Clinocardium nuttali</t>
+  </si>
+  <si>
+    <t>Sphenia ovoidea</t>
+  </si>
+  <si>
+    <t>Macoma</t>
+  </si>
+  <si>
+    <t>Mytilis</t>
+  </si>
+  <si>
+    <t>Battalaria</t>
+  </si>
+  <si>
+    <t>Littorina</t>
+  </si>
+  <si>
+    <t>Ghost shrimp</t>
+  </si>
+  <si>
+    <t>Mud shrimp</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Other </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Balanus spp</t>
+    </r>
+  </si>
+  <si>
+    <t>cockle</t>
+  </si>
+  <si>
+    <t>littleneck clam</t>
+  </si>
+  <si>
+    <t>butter clams</t>
+  </si>
+  <si>
+    <t>Crassostrea gigas</t>
+  </si>
+  <si>
+    <t>Olympia oyster</t>
+  </si>
+  <si>
+    <t>worms **</t>
+  </si>
+  <si>
+    <t>marsh vascular plants</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,8 +1088,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,8 +1335,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -904,8 +1457,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -948,8 +1654,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -958,13 +1665,68 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="42" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="42" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1002,6 +1764,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{C7E4870E-6D44-4812-BD8A-F8851D0B7EF8}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -1019,6 +1782,2690 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>salish_bycatch!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Drayton Pillars 2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>salish_bycatch!$M$3:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Batillaria attramentaria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Broken back shrimps</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carcinus maenas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Crangon sp.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ctenophores and Cnidairans</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cymatogaster aggregata</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Eel like fishes (prickelbacks and gunnels)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Flatfish - unspecified</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gasterosteus aculeatus</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Haminoea sp. (bubble shell)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hemigrapsus nudus</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Hermit Crabs (unspecified Species)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Leptocottus armatus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Littorina sitkana</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Metacarcinus magister</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Nassarius sp.</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Oligocottus maculosus</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Pagurus granosimanus</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Pagurus hirsutiusculus</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Platichthys stellatus</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Porichthys notatus</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Shrimp - unspecified</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Telmessus cheiragonus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>salish_bycatch!$N$3:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.379</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DB6-45BD-B1AE-F7423ED31A21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>salish_bycatch!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Drayton Pillars 2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>salish_bycatch!$M$3:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Batillaria attramentaria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Broken back shrimps</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carcinus maenas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Crangon sp.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ctenophores and Cnidairans</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cymatogaster aggregata</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Eel like fishes (prickelbacks and gunnels)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Flatfish - unspecified</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gasterosteus aculeatus</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Haminoea sp. (bubble shell)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hemigrapsus nudus</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Hermit Crabs (unspecified Species)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Leptocottus armatus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Littorina sitkana</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Metacarcinus magister</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Nassarius sp.</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Oligocottus maculosus</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Pagurus granosimanus</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Pagurus hirsutiusculus</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Platichthys stellatus</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Porichthys notatus</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Shrimp - unspecified</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Telmessus cheiragonus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>salish_bycatch!$O$3:$O$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3DB6-45BD-B1AE-F7423ED31A21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>salish_bycatch!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dungeness Channel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>salish_bycatch!$M$3:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>Batillaria attramentaria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Broken back shrimps</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carcinus maenas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Crangon sp.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ctenophores and Cnidairans</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cymatogaster aggregata</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Eel like fishes (prickelbacks and gunnels)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Flatfish - unspecified</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gasterosteus aculeatus</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Haminoea sp. (bubble shell)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hemigrapsus nudus</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Hermit Crabs (unspecified Species)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Leptocottus armatus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Littorina sitkana</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Metacarcinus magister</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Nassarius sp.</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Oligocottus maculosus</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Pagurus granosimanus</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Pagurus hirsutiusculus</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Platichthys stellatus</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Porichthys notatus</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Shrimp - unspecified</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Telmessus cheiragonus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>salish_bycatch!$P$3:$P$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.1060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.217</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3DB6-45BD-B1AE-F7423ED31A21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="613606352"/>
+        <c:axId val="613614352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="613606352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613614352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="613614352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613606352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>willapa_bycatch!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Longbeach</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>willapa_bycatch!$J$2:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Batillaria attramentaria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bay Goby</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carcinus maenas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cottus asper</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Crangon sp.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cymatogaster aggregata</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Eel like fishes (prickelbacks and gunnels)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gasterosteus aculeatus</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hemigrapsus oregonensis</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hermit Crabs (unspecified Species)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Leptocottus armatus</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Metacarcinus magister</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Nassarius sp.</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Pagurus hirsutiusculus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Platichthys stellatus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>willapa_bycatch!$K$2:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2222222222222223E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7777777777777779E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1111111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1111111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2222222222222223E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32222222222222224</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9771-4054-AE0F-D08490750654}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>willapa_bycatch!#REF!</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#REF!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>willapa_bycatch!$J$2:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Batillaria attramentaria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bay Goby</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carcinus maenas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cottus asper</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Crangon sp.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cymatogaster aggregata</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Eel like fishes (prickelbacks and gunnels)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gasterosteus aculeatus</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hemigrapsus oregonensis</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hermit Crabs (unspecified Species)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Leptocottus armatus</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Metacarcinus magister</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Nassarius sp.</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Pagurus hirsutiusculus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Platichthys stellatus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>willapa_bycatch!#REF!</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9771-4054-AE0F-D08490750654}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>willapa_bycatch!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Oysterville</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>willapa_bycatch!$J$2:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Batillaria attramentaria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bay Goby</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carcinus maenas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cottus asper</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Crangon sp.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cymatogaster aggregata</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Eel like fishes (prickelbacks and gunnels)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gasterosteus aculeatus</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hemigrapsus oregonensis</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hermit Crabs (unspecified Species)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Leptocottus armatus</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Metacarcinus magister</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Nassarius sp.</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Pagurus hirsutiusculus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Platichthys stellatus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>willapa_bycatch!$L$2:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1111111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1111111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7777777777777779E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.788888888888889</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1111111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18888888888888888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67777777777777781</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76666666666666672</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1111111111111112E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9771-4054-AE0F-D08490750654}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>willapa_bycatch!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stackpole</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>willapa_bycatch!$J$2:$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>Batillaria attramentaria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bay Goby</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Carcinus maenas</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Cottus asper</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Crangon sp.</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Cymatogaster aggregata</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Eel like fishes (prickelbacks and gunnels)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gasterosteus aculeatus</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hemigrapsus oregonensis</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hermit Crabs (unspecified Species)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Leptocottus armatus</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Metacarcinus magister</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Nassarius sp.</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Pagurus hirsutiusculus</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Platichthys stellatus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>willapa_bycatch!$N$2:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4285714285714285E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4285714285714285E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9771-4054-AE0F-D08490750654}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="613603472"/>
+        <c:axId val="613600912"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="613603472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613600912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="613600912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="613603472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>588645</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>43815</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5005E090-01F5-4B43-A6D5-734CB846BE84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>54292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CED8238-B911-4DCA-BB2F-5E1C4959D968}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1317,11 +4764,601 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3230DEBF-F00E-4305-A6E7-A20977BC0CDC}">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" customWidth="1"/>
+    <col min="5" max="5" width="44.21875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" t="s">
+        <v>140</v>
+      </c>
+      <c r="L5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>266</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1349,7 +5386,7 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B2" t="s">
@@ -1360,7 +5397,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B3" t="s">
@@ -1369,10 +5406,10 @@
       <c r="C3" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="9"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
@@ -1381,7 +5418,7 @@
       <c r="C4" t="s">
         <v>94</v>
       </c>
-      <c r="L4" s="9"/>
+      <c r="L4" s="8"/>
       <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1396,7 +5433,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B6" t="s">
@@ -1407,7 +5444,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B7" t="s">
@@ -1421,7 +5458,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B8" t="s">
@@ -1435,7 +5472,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B9" t="s">
@@ -1540,7 +5577,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>102</v>
       </c>
       <c r="B20" t="s">
@@ -1607,7 +5644,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -1618,7 +5655,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B33" s="7"/>
@@ -1635,7 +5672,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B35" t="s">
@@ -1697,7 +5734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -1993,10 +6030,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="43"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
@@ -2009,11 +6046,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -4496,4 +8533,3007 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14416FBA-3D37-4A5D-BA07-71C88A02DE45}">
+  <dimension ref="A1:Q48"/>
+  <sheetViews>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" s="26">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="17">
+        <v>15815</v>
+      </c>
+      <c r="E2" s="17">
+        <v>87.861000000000004</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="J2" s="26">
+        <v>2020</v>
+      </c>
+      <c r="K2" s="26">
+        <v>1434</v>
+      </c>
+      <c r="L2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="17">
+        <v>199</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="26">
+        <v>2021</v>
+      </c>
+      <c r="K3" s="26">
+        <v>1489</v>
+      </c>
+      <c r="L3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3">
+        <v>0.379</v>
+      </c>
+      <c r="O3">
+        <v>0.218</v>
+      </c>
+      <c r="P3">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="Q3" s="24">
+        <f t="shared" ref="Q3:Q13" si="0">AVERAGE(N3:P3)</f>
+        <v>0.56766666666666665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="17">
+        <v>197</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="L4" t="s">
+        <v>203</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="Q4" s="24">
+        <f t="shared" si="0"/>
+        <v>1.9666666666666669E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="17">
+        <v>79</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.439</v>
+      </c>
+      <c r="L5" t="s">
+        <v>203</v>
+      </c>
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="Q5" s="24">
+        <f t="shared" si="0"/>
+        <v>2.2333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="17">
+        <v>39</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.217</v>
+      </c>
+      <c r="L6" t="s">
+        <v>203</v>
+      </c>
+      <c r="M6" t="s">
+        <v>185</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="24">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="17">
+        <v>17</v>
+      </c>
+      <c r="E7" s="17">
+        <v>9.4E-2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>182</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.51633333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="17">
+        <v>12</v>
+      </c>
+      <c r="E8" s="17">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>203</v>
+      </c>
+      <c r="M8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N8">
+        <v>0.01</v>
+      </c>
+      <c r="O8">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
+        <f t="shared" si="0"/>
+        <v>9.3333333333333324E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="17">
+        <v>10</v>
+      </c>
+      <c r="E9" s="17">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>172</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q9" s="24">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="17">
+        <v>5</v>
+      </c>
+      <c r="E10" s="17">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>181</v>
+      </c>
+      <c r="N10">
+        <v>1E-3</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333332E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="17">
+        <v>4</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>203</v>
+      </c>
+      <c r="M11" t="s">
+        <v>173</v>
+      </c>
+      <c r="N11">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="O11">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="P11">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q11" s="24">
+        <f t="shared" si="0"/>
+        <v>0.11433333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>183</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0.06</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="24">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>203</v>
+      </c>
+      <c r="M13" t="s">
+        <v>167</v>
+      </c>
+      <c r="N13">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="O13">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="P13">
+        <v>0.217</v>
+      </c>
+      <c r="Q13" s="24">
+        <f t="shared" si="0"/>
+        <v>0.13966666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q14" s="24"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>176</v>
+      </c>
+      <c r="N15">
+        <v>0.21</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="24">
+        <f t="shared" ref="Q15:Q26" si="1">AVERAGE(N15:P15)</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="17">
+        <v>20408</v>
+      </c>
+      <c r="E16" s="17">
+        <v>14.231999999999999</v>
+      </c>
+      <c r="L16" t="s">
+        <v>203</v>
+      </c>
+      <c r="M16" t="s">
+        <v>163</v>
+      </c>
+      <c r="N16">
+        <v>0.98</v>
+      </c>
+      <c r="O16">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="P16">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="Q16" s="24">
+        <f t="shared" si="1"/>
+        <v>1.0153333333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1405</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.98</v>
+      </c>
+      <c r="M17" t="s">
+        <v>174</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q17" s="24">
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="17">
+        <v>544</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.379</v>
+      </c>
+      <c r="L18" t="s">
+        <v>203</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P18">
+        <v>9.4E-2</v>
+      </c>
+      <c r="Q18" s="24">
+        <f t="shared" si="1"/>
+        <v>3.5666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="17">
+        <v>417</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="L19" t="s">
+        <v>203</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="N19">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="O19">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="P19">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q19" s="24">
+        <f t="shared" si="1"/>
+        <v>3.8666666666666662E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="17">
+        <v>301</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="L20" t="s">
+        <v>203</v>
+      </c>
+      <c r="M20" t="s">
+        <v>180</v>
+      </c>
+      <c r="N20">
+        <v>2E-3</v>
+      </c>
+      <c r="O20">
+        <v>1E-3</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="24">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D21" s="17">
+        <v>294</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L21" t="s">
+        <v>203</v>
+      </c>
+      <c r="M21" t="s">
+        <v>170</v>
+      </c>
+      <c r="N21">
+        <v>0.128</v>
+      </c>
+      <c r="O21">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="P21">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="Q21" s="24">
+        <f t="shared" si="1"/>
+        <v>7.4666666666666673E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="17">
+        <v>184</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.128</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="s">
+        <v>165</v>
+      </c>
+      <c r="N22">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.49</v>
+      </c>
+      <c r="P22">
+        <v>0.439</v>
+      </c>
+      <c r="Q22" s="24">
+        <f t="shared" si="1"/>
+        <v>0.37799999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="17">
+        <v>170</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="s">
+        <v>187</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>1E-3</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="24">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333332E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="17">
+        <v>31</v>
+      </c>
+      <c r="E24" s="17">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M24" t="s">
+        <v>171</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="Q24" s="24">
+        <f t="shared" si="1"/>
+        <v>7.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="17">
+        <v>15</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="M25" t="s">
+        <v>179</v>
+      </c>
+      <c r="N25">
+        <v>2E-3</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="24">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666664E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="17">
+        <v>11</v>
+      </c>
+      <c r="E26" s="17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" t="s">
+        <v>178</v>
+      </c>
+      <c r="N26">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O26">
+        <v>0.109</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="24">
+        <f t="shared" si="1"/>
+        <v>3.8333333333333337E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="17">
+        <v>9</v>
+      </c>
+      <c r="E27" s="17">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q27" s="24"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="17">
+        <v>3</v>
+      </c>
+      <c r="E28" s="17">
+        <v>2E-3</v>
+      </c>
+      <c r="L28" t="s">
+        <v>203</v>
+      </c>
+      <c r="M28" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28">
+        <v>14.231999999999999</v>
+      </c>
+      <c r="O28">
+        <v>7.6890000000000001</v>
+      </c>
+      <c r="P28">
+        <v>87.861000000000004</v>
+      </c>
+      <c r="Q28" s="24">
+        <f>AVERAGE(N28:P28)</f>
+        <v>36.594000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="17">
+        <v>3</v>
+      </c>
+      <c r="E29" s="17">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="17">
+        <v>2</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="17">
+        <v>2</v>
+      </c>
+      <c r="E31" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="19">
+        <v>11449</v>
+      </c>
+      <c r="E32" s="19">
+        <v>7.6890000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="19">
+        <v>2307</v>
+      </c>
+      <c r="E33" s="19">
+        <v>1.5489999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="19">
+        <v>1447</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="19">
+        <v>729</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="19">
+        <v>324</v>
+      </c>
+      <c r="E36" s="19">
+        <v>0.218</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="19">
+        <v>162</v>
+      </c>
+      <c r="E37" s="19">
+        <v>0.109</v>
+      </c>
+      <c r="M37" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D38" s="19">
+        <v>131</v>
+      </c>
+      <c r="E38" s="19">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="M38" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="19">
+        <v>123</v>
+      </c>
+      <c r="E39" s="19">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="19">
+        <v>101</v>
+      </c>
+      <c r="E40" s="19">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="19">
+        <v>89</v>
+      </c>
+      <c r="E41" s="19">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="19">
+        <v>68</v>
+      </c>
+      <c r="E42" s="19">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="19">
+        <v>27</v>
+      </c>
+      <c r="E43" s="19">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="19">
+        <v>8</v>
+      </c>
+      <c r="E44" s="19">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" s="19">
+        <v>6</v>
+      </c>
+      <c r="E45" s="19">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="19">
+        <v>5</v>
+      </c>
+      <c r="E46" s="19">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="19">
+        <v>1</v>
+      </c>
+      <c r="E47" s="19">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="19">
+        <v>1</v>
+      </c>
+      <c r="E48" s="19">
+        <v>1E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="Q3:Q26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39F4BBA-CB01-4A71-8C1A-1025C6A70D77}">
+  <dimension ref="A1:O42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" style="27"/>
+    <col min="2" max="2" width="38.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="12.44140625" style="27"/>
+    <col min="10" max="10" width="24.5546875" style="27" customWidth="1"/>
+    <col min="11" max="16384" width="12.44140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="27">
+        <v>56</v>
+      </c>
+      <c r="E2" s="27">
+        <f t="shared" ref="E2:E26" si="0">D2/90</f>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="28">
+        <v>90</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="32">
+        <v>0</v>
+      </c>
+      <c r="L2" s="31">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="M2" s="32">
+        <v>0</v>
+      </c>
+      <c r="N2" s="31">
+        <v>0</v>
+      </c>
+      <c r="O2" s="27">
+        <f t="shared" ref="O2:O16" si="1">AVERAGE(K2:N2)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="27">
+        <v>161</v>
+      </c>
+      <c r="E3" s="27">
+        <f t="shared" si="0"/>
+        <v>1.788888888888889</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="28">
+        <v>90</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="K3" s="32">
+        <v>0</v>
+      </c>
+      <c r="L3" s="31">
+        <v>0</v>
+      </c>
+      <c r="M3" s="32">
+        <v>0</v>
+      </c>
+      <c r="N3" s="31">
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="O3" s="27">
+        <f t="shared" si="1"/>
+        <v>3.5714285714285713E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="27">
+        <v>96</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" si="0"/>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="28">
+        <v>70</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" s="32">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="L4" s="31">
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="M4" s="32">
+        <v>2.9078947368421053</v>
+      </c>
+      <c r="N4" s="31">
+        <v>1.6142857142857143</v>
+      </c>
+      <c r="O4" s="27">
+        <f t="shared" si="1"/>
+        <v>1.4222117794486215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="27">
+        <v>69</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="0"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="28">
+        <v>76</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="K5" s="32">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="L5" s="31">
+        <v>0</v>
+      </c>
+      <c r="M5" s="32">
+        <v>0.61842105263157898</v>
+      </c>
+      <c r="N5" s="31">
+        <v>1.5571428571428572</v>
+      </c>
+      <c r="O5" s="27">
+        <f t="shared" si="1"/>
+        <v>0.54944653299916457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="27">
+        <v>1</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="K6" s="32">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="L6" s="31">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="M6" s="32">
+        <v>0</v>
+      </c>
+      <c r="N6" s="31">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="O6" s="27">
+        <f t="shared" si="1"/>
+        <v>4.0079365079365076E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="27">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="32">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="L7" s="31">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="M7" s="32">
+        <v>0</v>
+      </c>
+      <c r="N7" s="31">
+        <v>0</v>
+      </c>
+      <c r="O7" s="27">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555558E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="27">
+        <v>17</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="32">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="L8" s="31">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="M8" s="32">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="N8" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="O8" s="27">
+        <f t="shared" si="1"/>
+        <v>8.0116959064327475E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="27">
+        <v>27</v>
+      </c>
+      <c r="E9" s="27">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="K9" s="32">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="L9" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="M9" s="32">
+        <v>0.30263157894736842</v>
+      </c>
+      <c r="N9" s="31">
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="O9" s="27">
+        <f t="shared" si="1"/>
+        <v>0.18478487886382622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="32">
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="L10" s="31">
+        <v>1.788888888888889</v>
+      </c>
+      <c r="M10" s="32">
+        <v>3.9473684210526314E-2</v>
+      </c>
+      <c r="N10" s="31">
+        <v>1.2285714285714286</v>
+      </c>
+      <c r="O10" s="27">
+        <f t="shared" si="1"/>
+        <v>0.80312238930659996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="27">
+        <v>1</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="32">
+        <v>0</v>
+      </c>
+      <c r="L11" s="31">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="31">
+        <v>0</v>
+      </c>
+      <c r="O11" s="27">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="27">
+        <v>7</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="0"/>
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" s="32">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="L12" s="31">
+        <v>0.18888888888888888</v>
+      </c>
+      <c r="M12" s="32">
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="N12" s="31">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="O12" s="27">
+        <f t="shared" si="1"/>
+        <v>0.41161236424394321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="27">
+        <v>24</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="32">
+        <v>3.8555555555555556</v>
+      </c>
+      <c r="L13" s="31">
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="M13" s="32">
+        <v>0</v>
+      </c>
+      <c r="N13" s="31">
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="O13" s="27">
+        <f t="shared" si="1"/>
+        <v>1.2769841269841271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="27">
+        <v>61</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="0"/>
+        <v>0.67777777777777781</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="K14" s="32">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="L14" s="31">
+        <v>0.67777777777777781</v>
+      </c>
+      <c r="M14" s="32">
+        <v>0</v>
+      </c>
+      <c r="N14" s="31">
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="O14" s="27">
+        <f t="shared" si="1"/>
+        <v>0.24246031746031746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="27">
+        <v>12</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" s="32">
+        <v>0</v>
+      </c>
+      <c r="L15" s="31">
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="M15" s="32">
+        <v>0</v>
+      </c>
+      <c r="N15" s="31">
+        <v>0</v>
+      </c>
+      <c r="O15" s="27">
+        <f t="shared" si="1"/>
+        <v>0.19166666666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="27">
+        <v>49</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" si="0"/>
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" s="30">
+        <v>0</v>
+      </c>
+      <c r="L16" s="29">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="M16" s="30">
+        <v>0</v>
+      </c>
+      <c r="N16" s="29">
+        <v>0</v>
+      </c>
+      <c r="O16" s="27">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777779E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="27">
+        <v>14</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="0"/>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="27">
+        <v>347</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="0"/>
+        <v>3.8555555555555556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="27">
+        <v>7</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" si="0"/>
+        <v>7.7777777777777779E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="27">
+        <v>29</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K20" s="27">
+        <v>19.566666666666666</v>
+      </c>
+      <c r="L20" s="27">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="M20" s="27">
+        <v>0</v>
+      </c>
+      <c r="N20" s="27">
+        <v>0</v>
+      </c>
+      <c r="O20" s="27">
+        <f>AVERAGE(K20:N20)</f>
+        <v>4.9249999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="27">
+        <v>2</v>
+      </c>
+      <c r="E21" s="27">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="27">
+        <v>2</v>
+      </c>
+      <c r="E22" s="27">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="27">
+        <v>1</v>
+      </c>
+      <c r="E23" s="27">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="27">
+        <v>1</v>
+      </c>
+      <c r="E24" s="27">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="J24" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" s="33"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" s="27">
+        <v>25</v>
+      </c>
+      <c r="E25" s="27">
+        <f t="shared" si="0"/>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" s="31"/>
+    </row>
+    <row r="26" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" s="27">
+        <f>900+861</f>
+        <v>1761</v>
+      </c>
+      <c r="E26" s="27">
+        <f t="shared" si="0"/>
+        <v>19.566666666666666</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="27">
+        <f>23+90</f>
+        <v>113</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" ref="E27:E36" si="2">D27/70</f>
+        <v>1.6142857142857143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="27">
+        <f>31+55</f>
+        <v>86</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="2"/>
+        <v>1.2285714285714286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D29" s="27">
+        <v>13</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="2"/>
+        <v>0.18571428571428572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="27">
+        <v>5</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="2"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="27">
+        <f>21+29</f>
+        <v>50</v>
+      </c>
+      <c r="E31" s="27">
+        <f t="shared" si="2"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="27">
+        <f>92+17</f>
+        <v>109</v>
+      </c>
+      <c r="E32" s="27">
+        <f t="shared" si="2"/>
+        <v>1.5571428571428572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33" s="27">
+        <v>8</v>
+      </c>
+      <c r="E33" s="27">
+        <f t="shared" si="2"/>
+        <v>0.11428571428571428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="27">
+        <v>7</v>
+      </c>
+      <c r="E34" s="27">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="27">
+        <v>1</v>
+      </c>
+      <c r="E35" s="27">
+        <f t="shared" si="2"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="27">
+        <v>1</v>
+      </c>
+      <c r="E36" s="27">
+        <f t="shared" si="2"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D37" s="27">
+        <f>72+149</f>
+        <v>221</v>
+      </c>
+      <c r="E37" s="27">
+        <f t="shared" ref="E37:E42" si="3">D37/76</f>
+        <v>2.9078947368421053</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="27">
+        <v>3</v>
+      </c>
+      <c r="E38" s="27">
+        <f t="shared" si="3"/>
+        <v>3.9473684210526314E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="27">
+        <f>24+8</f>
+        <v>32</v>
+      </c>
+      <c r="E39" s="27">
+        <f t="shared" si="3"/>
+        <v>0.42105263157894735</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="27">
+        <f>41+6</f>
+        <v>47</v>
+      </c>
+      <c r="E40" s="27">
+        <f t="shared" si="3"/>
+        <v>0.61842105263157898</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="27">
+        <f>9+14</f>
+        <v>23</v>
+      </c>
+      <c r="E41" s="27">
+        <f t="shared" si="3"/>
+        <v>0.30263157894736842</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="27">
+        <f>2+8</f>
+        <v>10</v>
+      </c>
+      <c r="E42" s="27">
+        <f t="shared" si="3"/>
+        <v>0.13157894736842105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E2F180-243B-4668-9A1B-B45D86A553CF}">
+  <dimension ref="A2:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.21875" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="43.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3">
+        <v>330</v>
+      </c>
+      <c r="D3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4">
+        <v>240</v>
+      </c>
+      <c r="D4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5">
+        <v>160</v>
+      </c>
+      <c r="D5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10">
+        <v>6000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11">
+        <v>3600</v>
+      </c>
+      <c r="D11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12">
+        <v>1800</v>
+      </c>
+      <c r="D12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13">
+        <v>1700</v>
+      </c>
+      <c r="D13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14">
+        <v>1200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15">
+        <v>600</v>
+      </c>
+      <c r="D15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16">
+        <v>300</v>
+      </c>
+      <c r="D16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17">
+        <v>3900</v>
+      </c>
+      <c r="D17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18">
+        <v>2000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" t="s">
+        <v>261</v>
+      </c>
+      <c r="F18" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19">
+        <v>1200</v>
+      </c>
+      <c r="D19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" t="s">
+        <v>261</v>
+      </c>
+      <c r="F19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20">
+        <v>700</v>
+      </c>
+      <c r="D20" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21">
+        <v>600</v>
+      </c>
+      <c r="D21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" t="s">
+        <v>261</v>
+      </c>
+      <c r="F21" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF03114F-8191-4420-AE99-693235D4E3F7}">
+  <dimension ref="B1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="41" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="42" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="42" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="42" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="42" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="42" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test-run-1/results/EGC_mock_community_LerayXT.xlsx
+++ b/test-run-1/results/EGC_mock_community_LerayXT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcf05\Documents\PhD\DNA_Metabarcoding\GreenCrab\EGC-Salish-Sea\test-run-1\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680210B1-C139-41CC-81C0-E9089E2C0A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294E6D66-C7A3-46BB-9072-601CC82873F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_list" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="286">
   <si>
     <t>Group</t>
   </si>
@@ -516,9 +516,6 @@
     <t>Run 1 BF3 sequences  show genus presence; Run 1 BF3 forward sequences show species presence</t>
   </si>
   <si>
-    <t>Crangon (spp, franciscorum?)</t>
-  </si>
-  <si>
     <t>Run 1 LXT forward sequences show genus presence</t>
   </si>
   <si>
@@ -531,9 +528,6 @@
     <t>prey of interest; expected prey</t>
   </si>
   <si>
-    <t>Mytilis trossulus</t>
-  </si>
-  <si>
     <t>Species</t>
   </si>
   <si>
@@ -738,9 +732,6 @@
     <t>bycatch (WB)</t>
   </si>
   <si>
-    <t>Nassarius (fossatus, perpinguis)</t>
-  </si>
-  <si>
     <t>bycatch (SS/WB)</t>
   </si>
   <si>
@@ -771,9 +762,6 @@
     <t>ss</t>
   </si>
   <si>
-    <t>Broken-back shrimps</t>
-  </si>
-  <si>
     <t>Lepidogobius lepidus</t>
   </si>
   <si>
@@ -879,42 +867,9 @@
     <t>Sphenia ovoidea</t>
   </si>
   <si>
-    <t>Macoma</t>
-  </si>
-  <si>
-    <t>Mytilis</t>
-  </si>
-  <si>
-    <t>Battalaria</t>
-  </si>
-  <si>
     <t>Littorina</t>
   </si>
   <si>
-    <t>Ghost shrimp</t>
-  </si>
-  <si>
-    <t>Mud shrimp</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Other </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Balanus spp</t>
-    </r>
-  </si>
-  <si>
-    <t>cockle</t>
-  </si>
-  <si>
     <t>littleneck clam</t>
   </si>
   <si>
@@ -924,13 +879,49 @@
     <t>Crassostrea gigas</t>
   </si>
   <si>
-    <t>Olympia oyster</t>
-  </si>
-  <si>
-    <t>worms **</t>
-  </si>
-  <si>
-    <t>marsh vascular plants</t>
+    <t>Ostrea lurida</t>
+  </si>
+  <si>
+    <t>Bivalves</t>
+  </si>
+  <si>
+    <t>Snails</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>surf smelt</t>
+  </si>
+  <si>
+    <t>Semiahmoo Bay Marine Park Wildlife Protection Plan (2006)</t>
+  </si>
+  <si>
+    <t>species of concern</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Drayton Harbor</t>
+  </si>
+  <si>
+    <t>Heptacarpus sp.</t>
+  </si>
+  <si>
+    <t>Nassarius spp: fossatus, perpinguis</t>
+  </si>
+  <si>
+    <t>Heptacarpus spp: pugettensis, paludicola, sitchensis</t>
+  </si>
+  <si>
+    <t>Components of Dungeness crab diets in Grays Harbor</t>
+  </si>
+  <si>
+    <t>Mytilis sp</t>
+  </si>
+  <si>
+    <t>Crangon sp ( franciscorum?)</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1595,21 +1586,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1656,7 +1632,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1716,12 +1692,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="42" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4767,8 +4744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3230DEBF-F00E-4305-A6E7-A20977BC0CDC}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4796,7 +4773,7 @@
         <v>144</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>133</v>
@@ -4830,7 +4807,7 @@
         <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4850,7 +4827,7 @@
         <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4918,13 +4895,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
         <v>152</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>153</v>
-      </c>
-      <c r="C8" t="s">
-        <v>154</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4932,7 +4909,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
         <v>104</v>
@@ -4946,7 +4923,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B10" t="s">
         <v>104</v>
@@ -4960,19 +4937,19 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>150</v>
+        <v>285</v>
       </c>
       <c r="B11" t="s">
         <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -4994,24 +4971,24 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B13" t="s">
         <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>155</v>
+        <v>284</v>
       </c>
       <c r="B14" t="s">
         <v>96</v>
@@ -5020,7 +4997,7 @@
         <v>138</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -5053,13 +5030,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" t="s">
         <v>192</v>
-      </c>
-      <c r="B17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" t="s">
-        <v>194</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5067,13 +5044,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5081,176 +5058,185 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C22" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
         <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
         <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
         <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C29" t="s">
-        <v>225</v>
+        <v>222</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s">
         <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s">
         <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
+        <v>192</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s">
         <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
+      <c r="E32" s="6" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B33" t="s">
         <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -5258,93 +5244,115 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s">
         <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s">
         <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B37" t="s">
         <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
+      <c r="A38" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>270</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="39" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -6030,10 +6038,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="44"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
@@ -8560,25 +8568,25 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>159</v>
-      </c>
       <c r="I1" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>190</v>
       </c>
       <c r="K1" s="26">
         <v>180</v>
@@ -8586,13 +8594,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D2" s="17">
         <v>15815</v>
@@ -8601,7 +8609,7 @@
         <v>87.861000000000004</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J2" s="26">
         <v>2020</v>
@@ -8610,33 +8618,33 @@
         <v>1434</v>
       </c>
       <c r="L2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D3" s="17">
         <v>199</v>
@@ -8645,7 +8653,7 @@
         <v>1.1060000000000001</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J3" s="26">
         <v>2021</v>
@@ -8654,10 +8662,10 @@
         <v>1489</v>
       </c>
       <c r="L3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N3">
         <v>0.379</v>
@@ -8675,13 +8683,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D4" s="17">
         <v>197</v>
@@ -8690,10 +8698,10 @@
         <v>1.0940000000000001</v>
       </c>
       <c r="L4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -8711,13 +8719,13 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5" s="17">
         <v>79</v>
@@ -8726,7 +8734,7 @@
         <v>0.439</v>
       </c>
       <c r="L5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M5" t="s">
         <v>73</v>
@@ -8747,13 +8755,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="17">
         <v>39</v>
@@ -8762,10 +8770,10 @@
         <v>0.217</v>
       </c>
       <c r="L6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -8783,13 +8791,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" s="17">
         <v>17</v>
@@ -8798,7 +8806,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -8816,13 +8824,13 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D8" s="17">
         <v>12</v>
@@ -8831,10 +8839,10 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="L8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N8">
         <v>0.01</v>
@@ -8852,13 +8860,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D9" s="17">
         <v>10</v>
@@ -8867,7 +8875,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="M9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -8885,13 +8893,13 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D10" s="17">
         <v>5</v>
@@ -8900,7 +8908,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="M10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N10">
         <v>1E-3</v>
@@ -8918,13 +8926,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D11" s="17">
         <v>4</v>
@@ -8933,10 +8941,10 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="L11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N11">
         <v>0.29099999999999998</v>
@@ -8954,13 +8962,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -8969,7 +8977,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -8987,13 +8995,13 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
@@ -9002,10 +9010,10 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="L13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N13">
         <v>0.11899999999999999</v>
@@ -9023,13 +9031,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D14" s="17">
         <v>1</v>
@@ -9041,13 +9049,13 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="17">
         <v>1</v>
@@ -9056,7 +9064,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N15">
         <v>0.21</v>
@@ -9074,13 +9082,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D16" s="17">
         <v>20408</v>
@@ -9089,10 +9097,10 @@
         <v>14.231999999999999</v>
       </c>
       <c r="L16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N16">
         <v>0.98</v>
@@ -9110,13 +9118,13 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D17" s="17">
         <v>1405</v>
@@ -9125,7 +9133,7 @@
         <v>0.98</v>
       </c>
       <c r="M17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -9143,13 +9151,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D18" s="17">
         <v>544</v>
@@ -9158,7 +9166,7 @@
         <v>0.379</v>
       </c>
       <c r="L18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s">
         <v>23</v>
@@ -9179,13 +9187,13 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D19" s="17">
         <v>417</v>
@@ -9194,10 +9202,10 @@
         <v>0.29099999999999998</v>
       </c>
       <c r="L19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M19" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="N19">
         <v>2.1999999999999999E-2</v>
@@ -9215,13 +9223,13 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D20" s="17">
         <v>301</v>
@@ -9230,10 +9238,10 @@
         <v>0.21</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N20">
         <v>2E-3</v>
@@ -9251,13 +9259,13 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D21" s="17">
         <v>294</v>
@@ -9266,10 +9274,10 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="L21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N21">
         <v>0.128</v>
@@ -9287,13 +9295,13 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D22" s="17">
         <v>184</v>
@@ -9302,10 +9310,10 @@
         <v>0.128</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N22">
         <v>0.20499999999999999</v>
@@ -9323,13 +9331,13 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D23" s="17">
         <v>170</v>
@@ -9338,10 +9346,10 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="L23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -9359,13 +9367,13 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D24" s="17">
         <v>31</v>
@@ -9374,7 +9382,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="M24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -9392,13 +9400,13 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D25" s="17">
         <v>15</v>
@@ -9407,7 +9415,7 @@
         <v>0.01</v>
       </c>
       <c r="M25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="N25">
         <v>2E-3</v>
@@ -9425,13 +9433,13 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D26" s="17">
         <v>11</v>
@@ -9440,10 +9448,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="L26" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="N26">
         <v>6.0000000000000001E-3</v>
@@ -9461,13 +9469,13 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D27" s="17">
         <v>9</v>
@@ -9479,13 +9487,13 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D28" s="17">
         <v>3</v>
@@ -9494,7 +9502,7 @@
         <v>2E-3</v>
       </c>
       <c r="L28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M28" t="s">
         <v>21</v>
@@ -9515,13 +9523,13 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D29" s="17">
         <v>3</v>
@@ -9532,13 +9540,13 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D30" s="17">
         <v>2</v>
@@ -9549,13 +9557,13 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D31" s="17">
         <v>2</v>
@@ -9566,13 +9574,13 @@
     </row>
     <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D32" s="19">
         <v>11449</v>
@@ -9583,13 +9591,13 @@
     </row>
     <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D33" s="19">
         <v>2307</v>
@@ -9600,13 +9608,13 @@
     </row>
     <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D34" s="19">
         <v>1447</v>
@@ -9617,13 +9625,13 @@
     </row>
     <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D35" s="19">
         <v>729</v>
@@ -9634,13 +9642,13 @@
     </row>
     <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D36" s="19">
         <v>324</v>
@@ -9649,18 +9657,18 @@
         <v>0.218</v>
       </c>
       <c r="M36" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D37" s="19">
         <v>162</v>
@@ -9669,18 +9677,18 @@
         <v>0.109</v>
       </c>
       <c r="M37" s="22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D38" s="19">
         <v>131</v>
@@ -9689,18 +9697,18 @@
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D39" s="19">
         <v>123</v>
@@ -9711,13 +9719,13 @@
     </row>
     <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D40" s="19">
         <v>101</v>
@@ -9728,13 +9736,13 @@
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D41" s="19">
         <v>89</v>
@@ -9745,13 +9753,13 @@
     </row>
     <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D42" s="19">
         <v>68</v>
@@ -9762,13 +9770,13 @@
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D43" s="19">
         <v>27</v>
@@ -9779,13 +9787,13 @@
     </row>
     <row r="44" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B44" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D44" s="19">
         <v>8</v>
@@ -9796,13 +9804,13 @@
     </row>
     <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D45" s="19">
         <v>6</v>
@@ -9813,13 +9821,13 @@
     </row>
     <row r="46" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D46" s="19">
         <v>5</v>
@@ -9830,13 +9838,13 @@
     </row>
     <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D47" s="19">
         <v>1</v>
@@ -9847,10 +9855,10 @@
     </row>
     <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>146</v>
@@ -9897,48 +9905,48 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B1" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>158</v>
-      </c>
       <c r="E1" s="36" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L1" s="37" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M1" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="N1" s="37" t="s">
-        <v>215</v>
-      </c>
       <c r="O1" s="36" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D2" s="27">
         <v>56</v>
@@ -9948,16 +9956,16 @@
         <v>0.62222222222222223</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H2" s="28">
         <v>90</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K2" s="32">
         <v>0</v>
@@ -9978,13 +9986,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D3" s="27">
         <v>161</v>
@@ -9994,13 +10002,13 @@
         <v>1.788888888888889</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H3" s="28">
         <v>90</v>
       </c>
       <c r="J3" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K3" s="32">
         <v>0</v>
@@ -10021,13 +10029,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D4" s="27">
         <v>96</v>
@@ -10037,13 +10045,13 @@
         <v>1.0666666666666667</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H4" s="28">
         <v>70</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>73</v>
@@ -10067,13 +10075,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D5" s="27">
         <v>69</v>
@@ -10083,16 +10091,16 @@
         <v>0.76666666666666672</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H5" s="28">
         <v>76</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K5" s="32">
         <v>2.2222222222222223E-2</v>
@@ -10113,13 +10121,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D6" s="27">
         <v>1</v>
@@ -10129,10 +10137,10 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J6" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K6" s="32">
         <v>7.7777777777777779E-2</v>
@@ -10153,13 +10161,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="27">
         <v>1</v>
@@ -10169,10 +10177,10 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K7" s="32">
         <v>1.1111111111111112E-2</v>
@@ -10193,13 +10201,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D8" s="27">
         <v>17</v>
@@ -10209,10 +10217,10 @@
         <v>0.18888888888888888</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J8" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K8" s="32">
         <v>1.1111111111111112E-2</v>
@@ -10233,13 +10241,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D9" s="27">
         <v>27</v>
@@ -10249,10 +10257,10 @@
         <v>0.3</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K9" s="32">
         <v>2.2222222222222223E-2</v>
@@ -10273,13 +10281,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D10" s="27">
         <v>1</v>
@@ -10289,7 +10297,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J10" s="27" t="s">
         <v>21</v>
@@ -10313,13 +10321,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D11" s="27">
         <v>1</v>
@@ -10329,7 +10337,7 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K11" s="32">
         <v>0</v>
@@ -10350,13 +10358,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D12" s="27">
         <v>7</v>
@@ -10366,10 +10374,10 @@
         <v>7.7777777777777779E-2</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K12" s="32">
         <v>0.32222222222222224</v>
@@ -10390,13 +10398,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D13" s="27">
         <v>24</v>
@@ -10406,7 +10414,7 @@
         <v>0.26666666666666666</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J13" s="27" t="s">
         <v>23</v>
@@ -10430,13 +10438,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D14" s="27">
         <v>61</v>
@@ -10446,10 +10454,10 @@
         <v>0.67777777777777781</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J14" s="35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K14" s="32">
         <v>0.27777777777777779</v>
@@ -10470,13 +10478,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="27">
         <v>12</v>
@@ -10486,10 +10494,10 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K15" s="32">
         <v>0</v>
@@ -10510,13 +10518,13 @@
     </row>
     <row r="16" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D16" s="27">
         <v>49</v>
@@ -10526,10 +10534,10 @@
         <v>0.5444444444444444</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K16" s="30">
         <v>0</v>
@@ -10550,13 +10558,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17" s="27">
         <v>14</v>
@@ -10566,21 +10574,21 @@
         <v>0.15555555555555556</v>
       </c>
       <c r="K17" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="27">
         <v>347</v>
@@ -10592,13 +10600,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D19" s="27">
         <v>7</v>
@@ -10610,13 +10618,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D20" s="27">
         <v>29</v>
@@ -10626,7 +10634,7 @@
         <v>0.32222222222222224</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K20" s="27">
         <v>19.566666666666666</v>
@@ -10647,13 +10655,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D21" s="27">
         <v>2</v>
@@ -10665,13 +10673,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D22" s="27">
         <v>2</v>
@@ -10683,13 +10691,13 @@
     </row>
     <row r="23" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D23" s="27">
         <v>1</v>
@@ -10701,13 +10709,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D24" s="27">
         <v>1</v>
@@ -10717,19 +10725,19 @@
         <v>1.1111111111111112E-2</v>
       </c>
       <c r="J24" s="34" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K24" s="33"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D25" s="27">
         <v>25</v>
@@ -10739,19 +10747,19 @@
         <v>0.27777777777777779</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K25" s="31"/>
     </row>
     <row r="26" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D26" s="27">
         <f>900+861</f>
@@ -10762,19 +10770,19 @@
         <v>19.566666666666666</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D27" s="27">
         <f>23+90</f>
@@ -10787,13 +10795,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D28" s="27">
         <f>31+55</f>
@@ -10806,13 +10814,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D29" s="27">
         <v>13</v>
@@ -10824,13 +10832,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D30" s="27">
         <v>5</v>
@@ -10842,13 +10850,13 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D31" s="27">
         <f>21+29</f>
@@ -10861,13 +10869,13 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D32" s="27">
         <f>92+17</f>
@@ -10880,13 +10888,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D33" s="27">
         <v>8</v>
@@ -10898,13 +10906,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D34" s="27">
         <v>7</v>
@@ -10916,13 +10924,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D35" s="27">
         <v>1</v>
@@ -10934,13 +10942,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D36" s="27">
         <v>1</v>
@@ -10952,13 +10960,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>73</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D37" s="27">
         <f>72+149</f>
@@ -10971,13 +10979,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D38" s="27">
         <v>3</v>
@@ -10989,13 +10997,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D39" s="27">
         <f>24+8</f>
@@ -11008,13 +11016,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D40" s="27">
         <f>41+6</f>
@@ -11027,13 +11035,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D41" s="27">
         <f>9+14</f>
@@ -11046,13 +11054,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D42" s="27">
         <f>2+8</f>
@@ -11073,8 +11081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E2F180-243B-4668-9A1B-B45D86A553CF}">
   <dimension ref="A2:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11091,355 +11099,355 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
         <v>241</v>
-      </c>
-      <c r="B3" t="s">
-        <v>245</v>
       </c>
       <c r="C3">
         <v>330</v>
       </c>
       <c r="D3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C4">
         <v>240</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C5">
         <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C6">
         <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E6" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F6" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C7">
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C8">
         <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C9">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F9" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C10">
         <v>6000</v>
       </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C11">
         <v>3600</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C12">
         <v>1800</v>
       </c>
       <c r="D12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F12" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C13">
         <v>1700</v>
       </c>
       <c r="D13" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C14">
         <v>1200</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E14" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F14" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C15">
         <v>600</v>
       </c>
       <c r="D15" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E15" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F15" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C16">
         <v>300</v>
       </c>
       <c r="D16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F16" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C17">
         <v>3900</v>
       </c>
       <c r="D17" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F17" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C18">
         <v>2000</v>
       </c>
       <c r="D18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C19">
         <v>1200</v>
       </c>
       <c r="D19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E19" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F19" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C20">
         <v>700</v>
       </c>
       <c r="D20" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F20" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C21">
         <v>600</v>
       </c>
       <c r="D21" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E21" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F21" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -11450,87 +11458,147 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF03114F-8191-4420-AE99-693235D4E3F7}">
-  <dimension ref="B1:B15"/>
+  <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="2" max="3" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="F3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="F4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="41" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="41" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="41" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="42" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="42" t="s">
+      <c r="C8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="8" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="42" t="s">
+      <c r="G8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="42" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="42" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="42" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="42" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="42" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="42" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="42" t="s">
-        <v>284</v>
-      </c>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
